--- a/e2e/TestData/Datasheet.xlsx
+++ b/e2e/TestData/Datasheet.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -19,67 +19,100 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Surname</t>
-  </si>
-  <si>
-    <t>Dipjyoti</t>
-  </si>
-  <si>
-    <t>Metia</t>
-  </si>
-  <si>
-    <t>FullName</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="23">
   <si>
     <t>DOB</t>
   </si>
   <si>
-    <t>Dipjyoti Metia</t>
-  </si>
-  <si>
-    <t>TCNo</t>
-  </si>
-  <si>
     <t>TC001</t>
   </si>
   <si>
-    <t>TC002</t>
-  </si>
-  <si>
-    <t>TC003</t>
-  </si>
-  <si>
-    <t>Kaman</t>
-  </si>
-  <si>
-    <t>Lafia</t>
-  </si>
-  <si>
-    <t>Kaman Lafia</t>
-  </si>
-  <si>
-    <t>Lapata</t>
-  </si>
-  <si>
-    <t>Bhui</t>
-  </si>
-  <si>
-    <t>Lapata Bhui</t>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>TcName</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>mngr55398</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>qAqUzEr</t>
+  </si>
+  <si>
+    <t>CustomerName</t>
+  </si>
+  <si>
+    <t>Simon Paul</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>1218/139 Lonsdale</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Victoria</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Melbourne</t>
+  </si>
+  <si>
+    <t>Pin</t>
+  </si>
+  <si>
+    <t>PhoneNo</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>xyzabc@gmail.com</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>abcdef</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF008000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -102,14 +135,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -450,83 +489,184 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:AB4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection sqref="A1:AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
+      <c r="J2" s="1">
+        <v>33950</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2">
+        <v>3000</v>
+      </c>
+      <c r="S2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2">
+        <v>9876543567</v>
+      </c>
+      <c r="U2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X2" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1">
-        <v>33224</v>
-      </c>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="E3" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1">
-        <v>34959</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="1">
-        <v>34680</v>
-      </c>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="E4" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="V2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>